--- a/Projects/Project_5/game_one.xlsx
+++ b/Projects/Project_5/game_one.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Operation_Research\Projects\Project_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0732BB3-799C-40CB-AFC5-9D968127E55F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFA4062-9D17-493A-8C0D-4209F620E6A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="810" windowWidth="13080" windowHeight="17730" xr2:uid="{5103918B-C9AF-47D1-ABA6-4C9170621ABC}"/>
+    <workbookView xWindow="22365" yWindow="1695" windowWidth="13080" windowHeight="17730" xr2:uid="{5103918B-C9AF-47D1-ABA6-4C9170621ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>1 Only</t>
   </si>
@@ -393,55 +393,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8BE5B7C-EC1C-41FB-9140-489E36081880}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>2.8</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>2</v>
       </c>
     </row>
